--- a/25th Feb Batch/central_tendancy.xlsx
+++ b/25th Feb Batch/central_tendancy.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA736D9-2546-4B2D-9EC3-694D3AE2F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD0C5D7-341B-4BF9-9E12-8D24A4A3EC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$N$1:$N$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Sales</t>
   </si>
@@ -135,6 +139,132 @@
   </si>
   <si>
     <t>Reject</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>difference of mean with each data point</t>
+  </si>
+  <si>
+    <t>Squaring of all data points with difference</t>
+  </si>
+  <si>
+    <t>stdev (population)</t>
+  </si>
+  <si>
+    <t>stdev (sample)</t>
+  </si>
+  <si>
+    <t>Variance (sample)</t>
+  </si>
+  <si>
+    <t>Variance (Population)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>exceutive</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>75th percentile</t>
+  </si>
+  <si>
+    <t>0th percentile</t>
+  </si>
+  <si>
+    <t>100th percentile</t>
+  </si>
+  <si>
+    <t>50th percentile</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>25th  percentile</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q1 - 1.5*IQR</t>
+  </si>
+  <si>
+    <t>Q3 + 1.5*IQR</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>A coin Toss</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t>probability of rain tomorrow</t>
   </si>
 </sst>
 </file>
@@ -176,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +320,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32123939-8FEE-436D-A2EB-C04FFBA84E85}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1136,4 +1273,566 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB2D1BD-0362-461B-8D73-036E2EC3857C}">
+  <dimension ref="C1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="36.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="15" max="15" width="28.453125" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>-5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>-4</v>
+      </c>
+      <c r="N2">
+        <v>15938</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>-3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>17647</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="N4">
+        <v>17887</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <f>G3-$G$4</f>
+        <v>-4</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:L5" si="0">H3-$G$4</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>19353</v>
+      </c>
+      <c r="O5">
+        <v>18989</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1">
+        <f>G5^2</f>
+        <v>16</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:L6" si="1">H5^2</f>
+        <v>36</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>20619</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="N7">
+        <v>22491</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7">
+        <f>123/4</f>
+        <v>30.75</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <f>SQRT(G7)</f>
+        <v>4.5276925690687087</v>
+      </c>
+      <c r="N9">
+        <v>23690</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f>SQRT(G8)</f>
+        <v>5.5452682532047088</v>
+      </c>
+      <c r="N10">
+        <v>23796</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>24780</v>
+      </c>
+      <c r="O11">
+        <v>86626</v>
+      </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>250000</v>
+      </c>
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16">
+        <v>23690</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17">
+        <v>20619</v>
+      </c>
+      <c r="O17">
+        <f>O11-O5</f>
+        <v>67637</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18">
+        <v>21598</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>23796</v>
+      </c>
+      <c r="N19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19">
+        <f>O5-(1.5*O17)</f>
+        <v>-82466.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <v>15938</v>
+      </c>
+      <c r="N20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20">
+        <f>O11+(1.5*O17)</f>
+        <v>188081.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21">
+        <v>17647</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23">
+        <v>24780</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24">
+        <v>23384</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25">
+        <v>19353</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26">
+        <v>17887</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>175000</v>
+      </c>
+      <c r="P27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="N1:N13" xr:uid="{7DB2D1BD-0362-461B-8D73-036E2EC3857C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N13">
+      <sortCondition ref="N1:N13"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/25th Feb Batch/central_tendancy.xlsx
+++ b/25th Feb Batch/central_tendancy.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD0C5D7-341B-4BF9-9E12-8D24A4A3EC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAAC7BD-2858-429D-B172-480AD1D17ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$N$1:$N$13</definedName>
@@ -26,12 +27,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Sales</t>
   </si>
@@ -265,6 +275,21 @@
   </si>
   <si>
     <t>probability of rain tomorrow</t>
+  </si>
+  <si>
+    <t>(90-100)</t>
+  </si>
+  <si>
+    <t>(80-90)</t>
+  </si>
+  <si>
+    <t>(70-80)</t>
+  </si>
+  <si>
+    <t>(60-70)</t>
+  </si>
+  <si>
+    <t>(50-60)</t>
   </si>
 </sst>
 </file>
@@ -286,15 +311,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -302,11 +333,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,15 +429,27 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,10 +963,10 @@
       <c r="J11">
         <v>2</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="8">
         <v>3.5</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="8"/>
       <c r="M11">
         <v>5</v>
       </c>
@@ -1225,13 +1348,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1279,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB2D1BD-0362-461B-8D73-036E2EC3857C}">
   <dimension ref="C1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="K19" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,17 +1566,17 @@
       <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>20.5</v>
       </c>
       <c r="N7">
         <v>22491</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1464,13 +1587,13 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>123/4</f>
         <v>30.75</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C9">
@@ -1740,7 +1863,7 @@
       <c r="P26" t="s">
         <v>75</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -1760,7 +1883,7 @@
       <c r="P27" t="s">
         <v>76</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -1835,4 +1958,89 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0F1F0E-6BDC-4C0F-8C5F-3871ABD56E3C}">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6500</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/25th Feb Batch/central_tendancy.xlsx
+++ b/25th Feb Batch/central_tendancy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAAC7BD-2858-429D-B172-480AD1D17ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86112BB4-2977-4750-B089-9B534788ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>Sales</t>
   </si>
@@ -277,19 +277,28 @@
     <t>probability of rain tomorrow</t>
   </si>
   <si>
-    <t>(90-100)</t>
-  </si>
-  <si>
-    <t>(80-90)</t>
-  </si>
-  <si>
-    <t>(70-80)</t>
-  </si>
-  <si>
-    <t>(60-70)</t>
-  </si>
-  <si>
-    <t>(50-60)</t>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>list value</t>
   </si>
 </sst>
 </file>
@@ -311,21 +320,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -333,91 +336,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,18 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1962,85 +1873,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0F1F0E-6BDC-4C0F-8C5F-3871ABD56E3C}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6500</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3800</v>
-      </c>
-      <c r="E9" s="1">
-        <v>200</v>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>